--- a/agents/Othello/csv/multiCompeteOthello-i10000.xlsx
+++ b/agents/Othello/csv/multiCompeteOthello-i10000.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\Othello\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CFCF64-941C-4A8C-9433-853153B125D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAC89D-E33F-4BB6-8036-AB21070D5DB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multiCompeteOthello-i10000" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'multiCompeteOthello-i10000'!$A$3:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'multiCompeteOthello-i10000'!$A$3:$J$57</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,27 +899,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <f>SUBTOTAL(1,H4:H57)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -952,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -984,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1656,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1816,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2008,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2456,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -2681,7 +2685,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J3"/>
+  <autoFilter ref="A3:J57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1.00E-08"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agents/Othello/csv/multiCompeteOthello-i10000.xlsx
+++ b/agents/Othello/csv/multiCompeteOthello-i10000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\Othello\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAC89D-E33F-4BB6-8036-AB21070D5DB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F6419-A1C5-43C5-9374-4008BB987524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,7 +921,7 @@
       </c>
       <c r="L2">
         <f>SUBTOTAL(1,H4:H57)</f>
-        <v>0.66666666666666663</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2688,7 +2688,7 @@
   <autoFilter ref="A3:J57" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="1.00E-08"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/agents/Othello/csv/multiCompeteOthello-i10000.xlsx
+++ b/agents/Othello/csv/multiCompeteOthello-i10000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\Othello\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F6419-A1C5-43C5-9374-4008BB987524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64966BAD-DA5E-4522-9F3D-34785D01E4B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,7 +905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H57"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -969,8 +969,8 @@
       <c r="D4">
         <v>10000</v>
       </c>
-      <c r="E4" s="1">
-        <v>1E-8</v>
+      <c r="E4">
+        <v>-1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1001,8 +1001,8 @@
       <c r="D5">
         <v>10000</v>
       </c>
-      <c r="E5" s="1">
-        <v>1E-8</v>
+      <c r="E5">
+        <v>-1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1020,21 +1020,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>10000</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1052,21 +1052,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>10000</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>10000</v>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>10000</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>10000</v>
       </c>
-      <c r="E10" s="1">
-        <v>1E-8</v>
+      <c r="E10">
+        <v>-1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1185,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>10000</v>
       </c>
-      <c r="E11" s="1">
-        <v>1E-8</v>
+      <c r="E11">
+        <v>-1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1212,21 +1212,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>10000</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1244,21 +1244,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>10000</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -1316,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.89999999999999902</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>10000</v>
       </c>
-      <c r="E16" s="1">
-        <v>1E-8</v>
+      <c r="E16">
+        <v>-1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1377,16 +1377,16 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>10000</v>
       </c>
-      <c r="E17" s="1">
-        <v>1E-8</v>
+      <c r="E17">
+        <v>-1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1404,21 +1404,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>10000</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1436,21 +1436,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>10000</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1540,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>10000</v>
       </c>
-      <c r="E22" s="1">
-        <v>1E-8</v>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1572,13 +1572,13 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>10000</v>
       </c>
-      <c r="E23" s="1">
-        <v>1E-8</v>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>10000</v>
@@ -1636,141 +1636,141 @@
         <v>1</v>
       </c>
       <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>10000</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26">
+      <c r="D28">
+        <v>10000</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>10000</v>
-      </c>
-      <c r="E26">
-        <v>-1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>10000</v>
-      </c>
-      <c r="E27">
-        <v>-1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>10000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1E-8</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
       <c r="D29">
         <v>10000</v>
       </c>
-      <c r="E29" s="1">
-        <v>1E-8</v>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1852,21 +1852,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>10000</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1884,21 +1884,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>10000</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1924,13 +1924,13 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>10000</v>
       </c>
-      <c r="E34" s="1">
-        <v>1E-8</v>
+      <c r="E34">
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1956,13 +1956,13 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>10000</v>
       </c>
-      <c r="E35" s="1">
-        <v>1E-8</v>
+      <c r="E35">
+        <v>0</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>10000</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>10000</v>
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2044,21 +2044,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>10000</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2076,21 +2076,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>10000</v>
       </c>
       <c r="E39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.89999999999999902</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>10000</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>10000</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2180,13 +2180,13 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>10000</v>
       </c>
-      <c r="E42">
-        <v>0</v>
+      <c r="E42" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2212,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>10000</v>
       </c>
-      <c r="E43">
-        <v>0</v>
+      <c r="E43" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>10000</v>
       </c>
-      <c r="E44">
-        <v>-1</v>
+      <c r="E44" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2273,16 +2273,16 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>10000</v>
       </c>
-      <c r="E45">
-        <v>-1</v>
+      <c r="E45" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>10000</v>
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>10000</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>10000</v>
       </c>
-      <c r="E48">
-        <v>0</v>
+      <c r="E48" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2404,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>10000</v>
       </c>
-      <c r="E49">
-        <v>0</v>
+      <c r="E49" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2433,16 +2433,16 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>10000</v>
       </c>
-      <c r="E50">
-        <v>-1</v>
+      <c r="E50" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2465,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>10000</v>
       </c>
-      <c r="E51">
-        <v>-1</v>
+      <c r="E51" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>10000</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>10000</v>
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2564,13 +2564,13 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
         <v>10000</v>
       </c>
-      <c r="E54">
-        <v>0</v>
+      <c r="E54" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2596,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>10000</v>
       </c>
-      <c r="E55">
-        <v>0</v>
+      <c r="E55" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -2633,8 +2633,8 @@
       <c r="D56">
         <v>10000</v>
       </c>
-      <c r="E56">
-        <v>-1</v>
+      <c r="E56" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>9</v>
@@ -2665,8 +2665,8 @@
       <c r="D57">
         <v>10000</v>
       </c>
-      <c r="E57">
-        <v>-1</v>
+      <c r="E57" s="1">
+        <v>1E-8</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2692,6 +2692,9 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState ref="A4:J57">
+    <sortCondition ref="E4:E57"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/agents/Othello/csv/multiCompeteOthello-i10000.xlsx
+++ b/agents/Othello/csv/multiCompeteOthello-i10000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\Othello\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64966BAD-DA5E-4522-9F3D-34785D01E4B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706DE4C2-E171-4BAA-92A7-F3EC987B758A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,12 +900,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +920,7 @@
       </c>
       <c r="L2">
         <f>SUBTOTAL(1,H4:H57)</f>
-        <v>0.88888888888888884</v>
+        <v>0.77592592592592591</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -956,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -988,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -2685,13 +2684,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J57" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:J57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A4:J57">
     <sortCondition ref="E4:E57"/>
   </sortState>
